--- a/Lista de Tarefas.xlsx
+++ b/Lista de Tarefas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Lista de Tarefas a Realizar</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Meter prints dos acontecimentos no servidor</t>
   </si>
   <si>
-    <t>Data de realização</t>
-  </si>
-  <si>
     <t>Corrigir layouts</t>
   </si>
   <si>
@@ -82,6 +79,21 @@
   </si>
   <si>
     <t>Feedback de operações na aplicação movel</t>
+  </si>
+  <si>
+    <t>Problemas de Toasts</t>
+  </si>
+  <si>
+    <t>Mudar Class do MyApplication para usar os helpers</t>
+  </si>
+  <si>
+    <t>Completar Helpers</t>
+  </si>
+  <si>
+    <t>% de Completude</t>
+  </si>
+  <si>
+    <t>Spinner Cozinha</t>
   </si>
 </sst>
 </file>
@@ -125,11 +137,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -433,17 +451,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D24"/>
+  <dimension ref="B3:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F11" sqref="F10:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="80.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
@@ -451,156 +469,252 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="C4" s="3">
         <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3</v>
       </c>
       <c r="D10" s="3">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3</v>
       </c>
       <c r="D12" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
       </c>
       <c r="D13" s="3">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="3">
-        <v>2</v>
+      <c r="C17" s="4">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C23" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Lista de Tarefas.xlsx
+++ b/Lista de Tarefas.xlsx
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F10:F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
       <c r="C20" s="4">
         <v>1</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Lista de Tarefas.xlsx
+++ b/Lista de Tarefas.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="16260" windowHeight="4272"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="16260" windowHeight="4275"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
     <sheet name="Folha2" sheetId="2" r:id="rId2"/>
     <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -99,8 +99,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +167,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,7 +205,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -239,7 +239,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -274,10 +273,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -450,21 +448,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="80.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -483,10 +481,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -497,7 +495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -505,10 +503,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -516,10 +514,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -527,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -538,10 +536,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -552,7 +550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -560,10 +558,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -571,10 +569,10 @@
         <v>3</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -585,7 +583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -596,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -607,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -615,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -629,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -640,7 +638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -648,10 +646,10 @@
         <v>5</v>
       </c>
       <c r="D19" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -662,16 +660,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4">
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4">
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
@@ -682,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
@@ -693,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4">
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
@@ -704,15 +702,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4">
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
@@ -724,24 +722,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lista de Tarefas.xlsx
+++ b/Lista de Tarefas.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="16260" windowHeight="4275"/>
+    <workbookView xWindow="396" yWindow="36" windowWidth="16260" windowHeight="4272"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -99,8 +99,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,7 +167,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -205,7 +205,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -239,6 +239,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -273,9 +274,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,21 +450,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="84" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +475,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -484,7 +486,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -495,7 +497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -506,7 +508,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -517,7 +519,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -528,7 +530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -539,7 +541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -550,7 +552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -561,7 +563,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -572,7 +574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -583,7 +585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -594,7 +596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -605,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -616,7 +618,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -627,7 +629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -638,7 +640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -649,7 +651,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -660,16 +662,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
@@ -677,10 +679,10 @@
         <v>5</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
@@ -688,10 +690,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
@@ -702,15 +704,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
@@ -722,24 +724,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Lista de Tarefas.xlsx
+++ b/Lista de Tarefas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Lista de Tarefas a Realizar</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>Spinner Cozinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que está a precisar de ser mesmo tratado é o modo automático. Fazer com que o dia/noite e </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> app aquilo esteja a funcionar correctamente. Os pontos da sala 124 tambem sao importantes.</t>
+  </si>
+  <si>
+    <t>O dia/noite e bom/mau tempo nao ta a ser enviado para a app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bom/mau tempo afectem as janelas/luz e depois quando mexermos nas janelas e luzes na </t>
   </si>
 </sst>
 </file>
@@ -449,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D28"/>
+  <dimension ref="B3:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -713,6 +725,26 @@
     <row r="28" spans="2:4">
       <c r="B28" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
